--- a/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25119F43-8C37-4F9B-8ED9-1937F4B89E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B80812D-E937-4416-966E-979D2347E557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1E4677F9-6B23-4F97-9D34-BC571923A37D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6BD05239-047C-4147-9DAD-09612F0AF016}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -152,9 +209,6 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,25%</t>
   </si>
   <si>
@@ -176,9 +230,6 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,05%</t>
   </si>
   <si>
@@ -191,57 +242,6 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
     <t>98,41%</t>
   </si>
   <si>
@@ -329,6 +329,42 @@
     <t>3,11%</t>
   </si>
   <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>97,04%</t>
   </si>
   <si>
@@ -377,42 +413,6 @@
     <t>3,74%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
     <t>97,76%</t>
   </si>
   <si>
@@ -500,6 +500,54 @@
     <t>2,31%</t>
   </si>
   <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>96,86%</t>
   </si>
   <si>
@@ -548,54 +596,6 @@
     <t>4,87%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
     <t>97,19%</t>
   </si>
   <si>
@@ -689,6 +689,48 @@
     <t>8,67%</t>
   </si>
   <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
     <t>91,56%</t>
   </si>
   <si>
@@ -735,48 +777,6 @@
   </si>
   <si>
     <t>10,58%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
   </si>
   <si>
     <t>94,31%</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A94CFF-E0D3-40BD-9EF9-3A074B2450CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14D23A6-C6E9-4F50-8026-833FC81466BA}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D7" s="7">
-        <v>219244</v>
+        <v>196157</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1504,10 +1504,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I7" s="7">
-        <v>215997</v>
+        <v>175797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1519,10 +1519,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="N7" s="7">
-        <v>435241</v>
+        <v>371953</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1540,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>6483</v>
+        <v>1498</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>1264</v>
+        <v>6442</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1570,10 +1570,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>7747</v>
+        <v>7941</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1591,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="D9" s="7">
-        <v>225727</v>
+        <v>197655</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1606,10 +1606,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7">
-        <v>217261</v>
+        <v>182239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1621,10 +1621,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>660</v>
+        <v>568</v>
       </c>
       <c r="N9" s="7">
-        <v>442988</v>
+        <v>379894</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1644,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>196157</v>
+        <v>219244</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1656,28 +1656,28 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="I10" s="7">
-        <v>175797</v>
+        <v>215997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>557</v>
+        <v>648</v>
       </c>
       <c r="N10" s="7">
-        <v>371953</v>
+        <v>435241</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1695,40 +1695,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>1498</v>
+        <v>6483</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>6442</v>
+        <v>1264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>7941</v>
+        <v>7747</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1746,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>197655</v>
+        <v>225727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1761,10 +1761,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="I12" s="7">
-        <v>182239</v>
+        <v>217261</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1776,10 +1776,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="N12" s="7">
-        <v>379894</v>
+        <v>442988</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1962,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB3697-AE15-412E-B354-EAF01AAD478E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB63C15C-8B31-473A-A588-3338FD0483B4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2101,13 +2101,13 @@
         <v>205579</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M4" s="7">
         <v>624</v>
@@ -2152,10 +2152,10 @@
         <v>3651</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>92</v>
@@ -2235,49 +2235,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="D7" s="7">
-        <v>235623</v>
+        <v>213538</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>299</v>
+      </c>
+      <c r="I7" s="7">
+        <v>214020</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="7">
-        <v>317</v>
-      </c>
-      <c r="I7" s="7">
-        <v>223071</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="7">
+        <v>593</v>
+      </c>
+      <c r="N7" s="7">
+        <v>427558</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="7">
-        <v>664</v>
-      </c>
-      <c r="N7" s="7">
-        <v>458694</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,49 +2286,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>7177</v>
+        <v>4563</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>747</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5310</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3505</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="7">
-        <v>15</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10682</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>242800</v>
+        <v>218101</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2352,10 +2352,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I9" s="7">
-        <v>226576</v>
+        <v>214767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2367,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="N9" s="7">
-        <v>469376</v>
+        <v>432868</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2390,49 +2390,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>213538</v>
+        <v>235623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="7">
+        <v>317</v>
+      </c>
+      <c r="I10" s="7">
+        <v>223071</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>664</v>
+      </c>
+      <c r="N10" s="7">
+        <v>458694</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="7">
-        <v>299</v>
-      </c>
-      <c r="I10" s="7">
-        <v>214020</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7">
-        <v>593</v>
-      </c>
-      <c r="N10" s="7">
-        <v>427558</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,40 +2441,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>4563</v>
+        <v>7177</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3505</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>747</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>5310</v>
+        <v>10682</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>121</v>
@@ -2492,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>218101</v>
+        <v>242800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2507,10 +2507,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7">
-        <v>214767</v>
+        <v>226576</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2522,10 +2522,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="N12" s="7">
-        <v>432868</v>
+        <v>469376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2557,7 +2557,7 @@
         <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>924</v>
@@ -2605,7 +2605,7 @@
         <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>132</v>
@@ -2708,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EFC238-51AD-477D-AE4C-69908CC6D4E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112CCE59-2156-42BC-913E-1662CAD7BB19}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2832,13 +2832,13 @@
         <v>196451</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>297</v>
@@ -2883,10 +2883,10 @@
         <v>1433</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>146</v>
@@ -2981,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D7" s="7">
-        <v>226651</v>
+        <v>218528</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>153</v>
@@ -2993,13 +2993,13 @@
         <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I7" s="7">
-        <v>224305</v>
+        <v>204271</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>155</v>
@@ -3011,10 +3011,10 @@
         <v>157</v>
       </c>
       <c r="M7" s="7">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="N7" s="7">
-        <v>450955</v>
+        <v>422799</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>158</v>
@@ -3032,25 +3032,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>7346</v>
+        <v>3005</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>162</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>6862</v>
+        <v>3096</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>163</v>
@@ -3062,10 +3062,10 @@
         <v>165</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>14209</v>
+        <v>6101</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>166</v>
@@ -3083,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D9" s="7">
-        <v>233997</v>
+        <v>221533</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3098,10 +3098,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>231167</v>
+        <v>207367</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3113,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N9" s="7">
-        <v>465164</v>
+        <v>428900</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3136,10 +3136,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D10" s="7">
-        <v>218528</v>
+        <v>226651</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>169</v>
@@ -3148,13 +3148,13 @@
         <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I10" s="7">
-        <v>204271</v>
+        <v>224305</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>171</v>
@@ -3166,10 +3166,10 @@
         <v>173</v>
       </c>
       <c r="M10" s="7">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="N10" s="7">
-        <v>422799</v>
+        <v>450955</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>174</v>
@@ -3187,25 +3187,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>3005</v>
+        <v>7346</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>178</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>3096</v>
+        <v>6862</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>179</v>
@@ -3217,10 +3217,10 @@
         <v>181</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>6101</v>
+        <v>14209</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>182</v>
@@ -3238,10 +3238,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D12" s="7">
-        <v>221533</v>
+        <v>233997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3253,10 +3253,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I12" s="7">
-        <v>207367</v>
+        <v>231167</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3268,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N12" s="7">
-        <v>428900</v>
+        <v>465164</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3454,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6448723-458D-4F25-A187-DC3CAA5D6EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E43373-A52E-4345-B4BD-CFCB8BFE0CFF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3584,7 +3584,7 @@
         <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3599,7 +3599,7 @@
         <v>205</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -3632,7 +3632,7 @@
         <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>210</v>
@@ -3647,7 +3647,7 @@
         <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>212</v>
@@ -3727,49 +3727,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>55579</v>
+        <v>37245</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>46</v>
+      </c>
+      <c r="I7" s="7">
+        <v>30544</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H7" s="7">
-        <v>57</v>
-      </c>
-      <c r="I7" s="7">
-        <v>41309</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>98</v>
+      </c>
+      <c r="N7" s="7">
+        <v>67790</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>127</v>
-      </c>
-      <c r="N7" s="7">
-        <v>96888</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,49 +3778,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5123</v>
+        <v>935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4192</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1175</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5127</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6298</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,10 +3829,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3844,10 +3844,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3859,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3882,25 +3882,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>37245</v>
+        <v>55579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>30544</v>
+        <v>41309</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>233</v>
@@ -3909,22 +3909,22 @@
         <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7">
+        <v>127</v>
+      </c>
+      <c r="N10" s="7">
+        <v>96888</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M10" s="7">
-        <v>98</v>
-      </c>
-      <c r="N10" s="7">
-        <v>67790</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,40 +3933,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>935</v>
+        <v>5123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>4192</v>
+        <v>1175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>5127</v>
+        <v>6298</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>243</v>
@@ -3984,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3999,10 +3999,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4014,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B80812D-E937-4416-966E-979D2347E557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC82B9D-9296-4100-BA34-EE05D8F7165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6BD05239-047C-4147-9DAD-09612F0AF016}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB13635-3E00-4AD8-B1EE-B0A3160C714B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
@@ -68,763 +68,934 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
     <t>98,74%</t>
   </si>
   <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
   </si>
 </sst>
 </file>
@@ -835,7 +1006,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -931,39 +1102,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1015,7 +1186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1126,13 +1297,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1141,6 +1305,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1205,19 +1376,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14D23A6-C6E9-4F50-8026-833FC81466BA}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E8EA2A-814E-4C04-9086-A83ED2F06CB6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1334,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>197421</v>
+        <v>1946</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1349,10 +1540,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>194050</v>
+        <v>1853</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1364,70 +1555,70 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>591</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>391471</v>
+        <v>3799</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>158</v>
+      </c>
+      <c r="D5" s="7">
+        <v>105116</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1946</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>151</v>
+      </c>
+      <c r="I5" s="7">
+        <v>99150</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3046</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>309</v>
+      </c>
+      <c r="N5" s="7">
+        <v>204266</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4991</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,153 +1627,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="D6" s="7">
-        <v>199367</v>
+        <v>107062</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="I6" s="7">
-        <v>197096</v>
+        <v>101003</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>599</v>
+        <v>315</v>
       </c>
       <c r="N6" s="7">
-        <v>396462</v>
+        <v>208065</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>196157</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6065</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>260</v>
-      </c>
-      <c r="I7" s="7">
-        <v>175797</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6065</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>557</v>
-      </c>
-      <c r="N7" s="7">
-        <v>371953</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="D8" s="7">
-        <v>1498</v>
+        <v>232755</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7">
+        <v>337</v>
+      </c>
+      <c r="I8" s="7">
+        <v>225521</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>688</v>
+      </c>
+      <c r="N8" s="7">
+        <v>458276</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6442</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>11</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7941</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,153 +1782,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="D9" s="7">
-        <v>197655</v>
+        <v>232755</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="I9" s="7">
-        <v>182239</v>
+        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>568</v>
+        <v>697</v>
       </c>
       <c r="N9" s="7">
-        <v>379894</v>
+        <v>464341</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>219244</v>
+        <v>3359</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2201</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5560</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>319</v>
-      </c>
-      <c r="I10" s="7">
-        <v>215997</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7">
-        <v>648</v>
-      </c>
-      <c r="N10" s="7">
-        <v>435241</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>6483</v>
+        <v>112312</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>154</v>
+      </c>
+      <c r="I11" s="7">
+        <v>103119</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>322</v>
+      </c>
+      <c r="N11" s="7">
+        <v>215431</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1264</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7747</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,144 +1937,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>225727</v>
+        <v>115671</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="I12" s="7">
-        <v>217261</v>
+        <v>105320</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="N12" s="7">
-        <v>442988</v>
+        <v>220991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>922</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>612821</v>
+        <v>4622</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>874</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>585844</v>
+        <v>632</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5254</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>1796</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1198665</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="D14" s="7">
-        <v>9927</v>
+        <v>162638</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I14" s="7">
-        <v>10752</v>
+        <v>158055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="N14" s="7">
-        <v>20679</v>
+        <v>320693</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -1901,55 +2092,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7">
+        <v>485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9927</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10752</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="7">
+        <v>31</v>
+      </c>
+      <c r="N16" s="7">
+        <v>20679</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>922</v>
+      </c>
+      <c r="D17" s="7">
+        <v>612821</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>874</v>
+      </c>
+      <c r="I17" s="7">
+        <v>585844</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1796</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1198665</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>937</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>622748</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>890</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>596596</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="7">
         <v>1827</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1219344</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1962,8 +2314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB63C15C-8B31-473A-A588-3338FD0483B4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA53C30-4638-4930-9160-772B1A1ACB52}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1979,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2080,100 +2432,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>223816</v>
+        <v>641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>205579</v>
+        <v>1587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>624</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>429395</v>
+        <v>2228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7">
-        <v>3700</v>
+        <v>139698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>3651</v>
+        <v>133188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="N5" s="7">
-        <v>7351</v>
+        <v>272886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,153 +2534,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="D6" s="7">
-        <v>227516</v>
+        <v>140339</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I6" s="7">
-        <v>209230</v>
+        <v>134775</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>635</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>436746</v>
+        <v>275114</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>213538</v>
+        <v>6782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>214020</v>
+        <v>2812</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>593</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>427558</v>
+        <v>9594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="D8" s="7">
-        <v>4563</v>
+        <v>236766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>747</v>
+        <v>216328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>5310</v>
+        <v>453094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,153 +2689,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D9" s="7">
-        <v>218101</v>
+        <v>243548</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="I9" s="7">
-        <v>214767</v>
+        <v>219140</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>432868</v>
+        <v>462688</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>235623</v>
+        <v>3395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>223071</v>
+        <v>1427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
-        <v>664</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>458694</v>
+        <v>4822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>7177</v>
+        <v>143784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>3505</v>
+        <v>147025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>416</v>
       </c>
       <c r="N11" s="7">
-        <v>10682</v>
+        <v>290809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,153 +2844,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>242800</v>
+        <v>147179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="I12" s="7">
-        <v>226576</v>
+        <v>148452</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>679</v>
+        <v>422</v>
       </c>
       <c r="N12" s="7">
-        <v>469376</v>
+        <v>295631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>957</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>672978</v>
+        <v>4622</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
-        <v>924</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>642670</v>
+        <v>2078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>1881</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1315647</v>
+        <v>6700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>15440</v>
+        <v>152729</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>7903</v>
+        <v>146128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>431</v>
       </c>
       <c r="N14" s="7">
-        <v>23343</v>
+        <v>298857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,55 +2999,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>231</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157351</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <v>210</v>
+      </c>
+      <c r="I15" s="7">
+        <v>148206</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7">
+        <v>441</v>
+      </c>
+      <c r="N15" s="7">
+        <v>305557</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15440</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7903</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="7">
+        <v>33</v>
+      </c>
+      <c r="N16" s="7">
+        <v>23343</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>957</v>
+      </c>
+      <c r="D17" s="7">
+        <v>672978</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="7">
+        <v>924</v>
+      </c>
+      <c r="I17" s="7">
+        <v>642670</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1881</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1315647</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>978</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>688418</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>936</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>650573</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="7">
         <v>1914</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1338990</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2708,8 +3221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112CCE59-2156-42BC-913E-1662CAD7BB19}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B79A241-9348-43A0-B2B4-1B55BAAAEAB2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2725,7 +3238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2826,100 +3339,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>196451</v>
+        <v>692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>297</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>184080</v>
+        <v>1802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>593</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>380531</v>
+        <v>2494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
-        <v>1433</v>
+        <v>115747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>2916</v>
+        <v>122814</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="N5" s="7">
-        <v>4349</v>
+        <v>238561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,153 +3441,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7">
-        <v>197884</v>
+        <v>116439</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>186996</v>
+        <v>124616</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="N6" s="7">
-        <v>384880</v>
+        <v>241055</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>218528</v>
+        <v>3060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>204271</v>
+        <v>2458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>422799</v>
+        <v>5518</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="D8" s="7">
-        <v>3005</v>
+        <v>228169</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="I8" s="7">
-        <v>3096</v>
+        <v>183942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>625</v>
       </c>
       <c r="N8" s="7">
-        <v>6101</v>
+        <v>412111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,153 +3596,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="D9" s="7">
-        <v>221533</v>
+        <v>231229</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="I9" s="7">
-        <v>207367</v>
+        <v>186400</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>428900</v>
+        <v>417629</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>226651</v>
+        <v>4211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5394</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7">
         <v>14</v>
       </c>
-      <c r="H10" s="7">
-        <v>314</v>
-      </c>
-      <c r="I10" s="7">
-        <v>224305</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M10" s="7">
-        <v>619</v>
-      </c>
       <c r="N10" s="7">
-        <v>450955</v>
+        <v>9605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>7346</v>
+        <v>158184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>6862</v>
+        <v>161507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="N11" s="7">
-        <v>14209</v>
+        <v>319691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,153 +3751,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>233997</v>
+        <v>162395</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="I12" s="7">
-        <v>231167</v>
+        <v>166901</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>639</v>
+        <v>465</v>
       </c>
       <c r="N12" s="7">
-        <v>465164</v>
+        <v>329296</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>917</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>641630</v>
+        <v>3820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
-        <v>922</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>612655</v>
+        <v>3221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
-        <v>1839</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1254286</v>
+        <v>7041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>11784</v>
+        <v>139530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>12875</v>
+        <v>144393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="N14" s="7">
-        <v>24658</v>
+        <v>283923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,55 +3906,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>193</v>
+      </c>
+      <c r="D15" s="7">
+        <v>143350</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <v>210</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147614</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7">
+        <v>403</v>
+      </c>
+      <c r="N15" s="7">
+        <v>290964</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11784</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>12875</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="7">
+        <v>37</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24658</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>917</v>
+      </c>
+      <c r="D17" s="7">
+        <v>641630</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="7">
+        <v>922</v>
+      </c>
+      <c r="I17" s="7">
+        <v>612655</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1839</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1254286</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>934</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>653414</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>625530</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="7">
         <v>1876</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1278944</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3454,8 +4128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E43373-A52E-4345-B4BD-CFCB8BFE0CFF}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A34B833-B8D1-4BE0-BDA9-26F5C78A0436}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3471,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3572,100 +4246,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>26413</v>
+        <v>565</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>22284</v>
+        <v>418</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>48697</v>
+        <v>983</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>1130</v>
+        <v>17106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>418</v>
+        <v>15913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>1548</v>
+        <v>33019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,153 +4348,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>37245</v>
+        <v>565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>30544</v>
+        <v>2734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>67790</v>
+        <v>3299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>935</v>
+        <v>32049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>4192</v>
+        <v>25216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="N8" s="7">
-        <v>5127</v>
+        <v>57265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,150 +4506,150 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>55579</v>
+        <v>3160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>41309</v>
+        <v>1457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>96888</v>
+        <v>4617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>5123</v>
+        <v>31900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>1175</v>
+        <v>29012</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>6298</v>
+        <v>60912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +4658,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>119237</v>
+        <v>2898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>94138</v>
+        <v>1175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>213375</v>
+        <v>4073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>7188</v>
+        <v>38183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>5785</v>
+        <v>23998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>12973</v>
+        <v>62180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,55 +4813,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7">
+        <v>90</v>
+      </c>
+      <c r="N15" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7188</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5785</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16" s="7">
+        <v>20</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12973</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>177</v>
+      </c>
+      <c r="D17" s="7">
+        <v>119237</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="7">
+        <v>144</v>
+      </c>
+      <c r="I17" s="7">
+        <v>94138</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M17" s="7">
+        <v>321</v>
+      </c>
+      <c r="N17" s="7">
+        <v>213375</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>126425</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>99923</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="7">
         <v>341</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>226348</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC82B9D-9296-4100-BA34-EE05D8F7165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73BFA9B-FE5E-4C36-A741-038B4B3BA56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB13635-3E00-4AD8-B1EE-B0A3160C714B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{447B705D-2795-4DE5-AE14-5EF1F38674B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
@@ -77,925 +77,913 @@
     <t>1,82%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>10,44%</t>
+    <t>8,59%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>91,41%</t>
   </si>
   <si>
     <t>90,22%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>21,99%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>14,48%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>78,01%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>84,78%</t>
+    <t>85,16%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>85,52%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>16,66%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>14,77%</t>
+    <t>16,55%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>83,34%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>85,23%</t>
+    <t>83,45%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>10,42%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>89,58%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E8EA2A-814E-4C04-9086-A83ED2F06CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB6923-0E16-40CC-BF97-14789A1A7D4C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1707,7 +1695,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -1716,13 +1704,13 @@
         <v>6065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,10 +1725,10 @@
         <v>232755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -1752,13 +1740,13 @@
         <v>225521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>688</v>
@@ -1767,13 +1755,13 @@
         <v>458276</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1817,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1829,13 @@
         <v>3359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1856,13 +1844,13 @@
         <v>2201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1871,13 +1859,13 @@
         <v>5560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1880,13 @@
         <v>112312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>154</v>
@@ -1907,13 +1895,13 @@
         <v>103119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -1922,13 +1910,13 @@
         <v>215431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,7 +1972,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1996,13 +1984,13 @@
         <v>4622</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2011,13 +1999,13 @@
         <v>632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2026,13 +2014,13 @@
         <v>5254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2035,13 @@
         <v>162638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>232</v>
@@ -2062,13 +2050,13 @@
         <v>158055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>477</v>
@@ -2077,13 +2065,13 @@
         <v>320693</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2139,13 @@
         <v>9927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2166,13 +2154,13 @@
         <v>10752</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2181,13 +2169,13 @@
         <v>20679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2190,13 @@
         <v>612821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
@@ -2217,13 +2205,13 @@
         <v>585844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1796</v>
@@ -2232,13 +2220,13 @@
         <v>1198665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2282,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA53C30-4638-4930-9160-772B1A1ACB52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9503D4C-872B-45E3-AED0-C462BA0E34CD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2438,13 +2426,13 @@
         <v>641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2453,13 +2441,13 @@
         <v>1587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2468,13 +2456,13 @@
         <v>2228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2477,13 @@
         <v>139698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
@@ -2504,13 +2492,13 @@
         <v>133188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -2519,13 +2507,13 @@
         <v>272886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2581,13 @@
         <v>6782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2608,13 +2596,13 @@
         <v>2812</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2623,13 +2611,13 @@
         <v>9594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2632,13 @@
         <v>236766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
@@ -2659,13 +2647,13 @@
         <v>216328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>638</v>
@@ -2674,13 +2662,13 @@
         <v>453094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2724,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2736,13 @@
         <v>3395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2763,13 +2751,13 @@
         <v>1427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2778,13 +2766,13 @@
         <v>4822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2787,13 @@
         <v>143784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -2814,13 +2802,13 @@
         <v>147025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>416</v>
@@ -2829,13 +2817,13 @@
         <v>290809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2879,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2906,10 +2894,10 @@
         <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2957,10 +2945,10 @@
         <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -3061,10 +3049,10 @@
         <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3073,13 +3061,13 @@
         <v>7903</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3088,13 +3076,13 @@
         <v>23343</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3097,13 @@
         <v>672978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -3124,13 +3112,13 @@
         <v>642670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>1881</v>
@@ -3139,13 +3127,13 @@
         <v>1315647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,7 +3189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B79A241-9348-43A0-B2B4-1B55BAAAEAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46F06C0-D145-407C-ABC4-469044CF8F83}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3238,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3351,7 +3339,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3360,13 +3348,13 @@
         <v>1802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3375,13 +3363,13 @@
         <v>2494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,10 +3387,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -3411,13 +3399,13 @@
         <v>122814</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -3426,13 +3414,13 @@
         <v>238561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3488,13 @@
         <v>3060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3515,13 +3503,13 @@
         <v>2458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3530,13 +3518,13 @@
         <v>5518</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3539,13 @@
         <v>228169</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>289</v>
@@ -3566,13 +3554,13 @@
         <v>183942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>625</v>
@@ -3581,13 +3569,13 @@
         <v>412111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3631,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3655,13 +3643,13 @@
         <v>4211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3670,13 +3658,13 @@
         <v>5394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3685,13 +3673,13 @@
         <v>9605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3694,13 @@
         <v>158184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>232</v>
@@ -3721,13 +3709,13 @@
         <v>161507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>451</v>
@@ -3736,13 +3724,13 @@
         <v>319691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3786,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3810,13 +3798,13 @@
         <v>3820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3825,13 +3813,13 @@
         <v>3221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3840,13 +3828,13 @@
         <v>7041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3849,13 @@
         <v>139530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -3876,13 +3864,13 @@
         <v>144393</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>393</v>
@@ -3891,13 +3879,13 @@
         <v>283923</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,7 +3953,7 @@
         <v>11784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>230</v>
@@ -4001,7 +3989,7 @@
         <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4004,13 @@
         <v>641630</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>922</v>
@@ -4031,13 +4019,13 @@
         <v>612655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>1839</v>
@@ -4046,13 +4034,13 @@
         <v>1254286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,7 +4096,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4128,7 +4116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A34B833-B8D1-4BE0-BDA9-26F5C78A0436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD79839-43F9-4182-B191-0A44B690EDFE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4252,13 +4240,13 @@
         <v>565</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4267,7 +4255,7 @@
         <v>418</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>30</v>
@@ -4282,13 +4270,13 @@
         <v>983</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4291,13 @@
         <v>17106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -4318,13 +4306,13 @@
         <v>15913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
@@ -4333,13 +4321,13 @@
         <v>33019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4395,13 @@
         <v>565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4422,13 +4410,13 @@
         <v>2734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4437,13 +4425,13 @@
         <v>3299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4446,13 @@
         <v>32049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -4473,13 +4461,13 @@
         <v>25216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -4488,13 +4476,13 @@
         <v>57265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,7 +4538,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4562,13 +4550,13 @@
         <v>3160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4577,13 +4565,13 @@
         <v>1457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4592,13 +4580,13 @@
         <v>4617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4601,13 @@
         <v>31900</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4628,13 +4616,13 @@
         <v>29012</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -4643,13 +4631,13 @@
         <v>60912</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4693,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4720,10 +4708,10 @@
         <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4732,13 +4720,13 @@
         <v>1175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4747,13 +4735,13 @@
         <v>4073</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4756,13 @@
         <v>38183</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4783,13 +4771,13 @@
         <v>23998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -4798,13 +4786,13 @@
         <v>62180</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4860,13 @@
         <v>7188</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4887,13 +4875,13 @@
         <v>5785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4902,13 +4890,13 @@
         <v>12973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4911,13 @@
         <v>119237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -4938,13 +4926,13 @@
         <v>94138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -4953,13 +4941,13 @@
         <v>213375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +5003,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73BFA9B-FE5E-4C36-A741-038B4B3BA56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B4D9049-5CCD-485A-93A3-88B5595385B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{447B705D-2795-4DE5-AE14-5EF1F38674B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BDDFF80-C95B-4B30-AF6C-4E6AE42B42C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="307">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,55 +74,55 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,6 +131,15 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -140,22 +149,22 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -164,826 +173,793 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB6923-0E16-40CC-BF97-14789A1A7D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FC6E6-CA57-4215-A5F9-7C432E57BA4C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1946</v>
+        <v>1853</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1531,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1853</v>
+        <v>1946</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1549,7 +1525,7 @@
         <v>3799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -1564,10 +1540,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7">
-        <v>105116</v>
+        <v>99150</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1579,10 +1555,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>99150</v>
+        <v>105116</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1600,7 +1576,7 @@
         <v>204266</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>26</v>
@@ -1615,25 +1591,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101003</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>161</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107062</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>154</v>
-      </c>
-      <c r="I6" s="7">
-        <v>101003</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -1668,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6065</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1659,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>6065</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1719,10 +1695,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>232755</v>
+        <v>225521</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1731,22 +1707,22 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="I8" s="7">
-        <v>225521</v>
+        <v>232755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>688</v>
@@ -1770,25 +1746,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>351</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>232755</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>346</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1823,34 +1799,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3359</v>
+        <v>2201</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3359</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2201</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1859,13 +1835,13 @@
         <v>5560</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,34 +1850,34 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>154</v>
+      </c>
+      <c r="D11" s="7">
+        <v>103119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7">
         <v>168</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>112312</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7">
-        <v>154</v>
-      </c>
-      <c r="I11" s="7">
-        <v>103119</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -1910,13 +1886,13 @@
         <v>215431</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,25 +1901,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>157</v>
+      </c>
+      <c r="D12" s="7">
+        <v>105320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115671</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>157</v>
-      </c>
-      <c r="I12" s="7">
-        <v>105320</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1972,40 +1948,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>632</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4622</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>632</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2014,13 +1990,13 @@
         <v>5254</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,34 +2005,34 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7">
+        <v>158055</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7">
         <v>245</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>162638</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>232</v>
-      </c>
-      <c r="I14" s="7">
-        <v>158055</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>477</v>
@@ -2065,13 +2041,13 @@
         <v>320693</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,25 +2056,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>252</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167260</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7">
-        <v>158687</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -2133,34 +2109,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10752</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>9927</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10752</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2169,13 +2145,13 @@
         <v>20679</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,34 +2160,34 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>874</v>
+      </c>
+      <c r="D17" s="7">
+        <v>585844</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="7">
         <v>922</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>612821</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="7">
-        <v>874</v>
-      </c>
-      <c r="I17" s="7">
-        <v>585844</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1796</v>
@@ -2220,13 +2196,13 @@
         <v>1198665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,25 +2211,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>890</v>
+      </c>
+      <c r="D18" s="7">
+        <v>596596</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>937</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>622748</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>890</v>
-      </c>
-      <c r="I18" s="7">
-        <v>596596</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -2282,7 +2258,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9503D4C-872B-45E3-AED0-C462BA0E34CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D5408-2BFE-4EB4-94EF-EC0C43C9E6BF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2319,7 +2295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2420,34 +2396,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1587</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>641</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1587</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2456,13 +2432,13 @@
         <v>2228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,31 +2450,31 @@
         <v>198</v>
       </c>
       <c r="D5" s="7">
-        <v>139698</v>
+        <v>133188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>133188</v>
+        <v>139698</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -2507,13 +2483,13 @@
         <v>272886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,25 +2498,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>201</v>
+      </c>
+      <c r="D6" s="7">
+        <v>134775</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>199</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>140339</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>201</v>
-      </c>
-      <c r="I6" s="7">
-        <v>134775</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -2575,34 +2551,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2812</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>6782</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2812</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2611,13 +2587,13 @@
         <v>9594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,34 +2602,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
+        <v>311</v>
+      </c>
+      <c r="D8" s="7">
+        <v>216328</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="7">
         <v>327</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>236766</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="7">
-        <v>311</v>
-      </c>
-      <c r="I8" s="7">
-        <v>216328</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>638</v>
@@ -2662,13 +2638,13 @@
         <v>453094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,25 +2653,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219140</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>336</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>243548</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>219140</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -2730,34 +2706,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1427</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3395</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1427</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2766,13 +2742,13 @@
         <v>4822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,31 +2760,31 @@
         <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>143784</v>
+        <v>147025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>147025</v>
+        <v>143784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>416</v>
@@ -2817,13 +2793,13 @@
         <v>290809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,25 +2808,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>210</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148452</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>147179</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>210</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148452</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -2879,40 +2855,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2078</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4622</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2078</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2921,13 +2897,13 @@
         <v>6700</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,34 +2912,34 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7">
+        <v>146128</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>224</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>152729</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>207</v>
-      </c>
-      <c r="I14" s="7">
-        <v>146128</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>431</v>
@@ -2972,13 +2948,13 @@
         <v>298857</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,25 +2963,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>210</v>
+      </c>
+      <c r="D15" s="7">
+        <v>148206</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>231</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>157351</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>210</v>
-      </c>
-      <c r="I15" s="7">
-        <v>148206</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3040,34 +3016,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7903</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
         <v>21</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>15440</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7903</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3076,13 +3052,13 @@
         <v>23343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3067,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>924</v>
+      </c>
+      <c r="D17" s="7">
+        <v>642670</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7">
         <v>957</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>672978</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="7">
-        <v>924</v>
-      </c>
-      <c r="I17" s="7">
-        <v>642670</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>1881</v>
       </c>
       <c r="N17" s="7">
-        <v>1315647</v>
+        <v>1315648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,25 +3118,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>936</v>
+      </c>
+      <c r="D18" s="7">
+        <v>650573</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>978</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>688418</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>936</v>
-      </c>
-      <c r="I18" s="7">
-        <v>650573</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -3175,7 +3151,7 @@
         <v>1914</v>
       </c>
       <c r="N18" s="7">
-        <v>1338990</v>
+        <v>1338991</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -3189,7 +3165,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46F06C0-D145-407C-ABC4-469044CF8F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFC7AF8-1DE7-4847-B1EF-A6286B92A73E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3226,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3327,34 +3303,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1802</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>692</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1802</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3363,13 +3339,13 @@
         <v>2494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,34 +3354,34 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>196</v>
+      </c>
+      <c r="D5" s="7">
+        <v>122814</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="7">
         <v>174</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>115747</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="7">
-        <v>196</v>
-      </c>
-      <c r="I5" s="7">
-        <v>122814</v>
-      </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -3414,10 +3390,10 @@
         <v>238561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>183</v>
@@ -3429,25 +3405,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>199</v>
+      </c>
+      <c r="D6" s="7">
+        <v>124616</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>175</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>116439</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>199</v>
-      </c>
-      <c r="I6" s="7">
-        <v>124616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3482,10 +3458,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3060</v>
+        <v>2458</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>184</v>
@@ -3497,19 +3473,19 @@
         <v>186</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2458</v>
+        <v>3060</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3533,10 +3509,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="D8" s="7">
-        <v>228169</v>
+        <v>183942</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>189</v>
@@ -3548,19 +3524,19 @@
         <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>183942</v>
+        <v>228169</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>625</v>
@@ -3584,25 +3560,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>293</v>
+      </c>
+      <c r="D9" s="7">
+        <v>186400</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>341</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>231229</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>293</v>
-      </c>
-      <c r="I9" s="7">
-        <v>186400</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3637,34 +3613,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5394</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4211</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5394</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3673,13 +3649,13 @@
         <v>9605</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,34 +3664,34 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7">
+        <v>161507</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="7">
         <v>219</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158184</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="7">
-        <v>232</v>
-      </c>
-      <c r="I11" s="7">
-        <v>161507</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>451</v>
@@ -3724,13 +3700,13 @@
         <v>319691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,25 +3715,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>240</v>
+      </c>
+      <c r="D12" s="7">
+        <v>166901</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>225</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>162395</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>240</v>
-      </c>
-      <c r="I12" s="7">
-        <v>166901</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3786,7 +3762,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3795,31 +3771,31 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3820</v>
+        <v>3221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3221</v>
+        <v>3820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3828,13 +3804,13 @@
         <v>7041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,34 +3819,34 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>205</v>
+      </c>
+      <c r="D14" s="7">
+        <v>144393</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="7">
         <v>188</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>139530</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="7">
-        <v>205</v>
-      </c>
-      <c r="I14" s="7">
-        <v>144393</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>393</v>
@@ -3879,13 +3855,13 @@
         <v>283923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,25 +3870,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>210</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147614</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>193</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>143350</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>210</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3947,34 +3923,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12875</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>11784</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12875</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3983,13 +3959,13 @@
         <v>24658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,34 +3974,34 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>922</v>
+      </c>
+      <c r="D17" s="7">
+        <v>612655</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="7">
         <v>917</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>641630</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="7">
-        <v>922</v>
-      </c>
-      <c r="I17" s="7">
-        <v>612655</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>1839</v>
@@ -4034,13 +4010,13 @@
         <v>1254286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,25 +4025,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>625530</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>934</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>653414</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>625530</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -4096,7 +4072,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD79839-43F9-4182-B191-0A44B690EDFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC088B3-4CBB-4CBA-ABAC-29CD85754001}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,7 +4109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4237,46 +4213,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>565</v>
+        <v>416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>418</v>
+        <v>586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4261,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15879</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="7">
         <v>37</v>
       </c>
-      <c r="D5" s="7">
-        <v>17106</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
       <c r="I5" s="7">
-        <v>15913</v>
+        <v>17861</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>33019</v>
+        <v>33740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,25 +4312,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
       <c r="I6" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -4369,7 +4345,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -4389,49 +4365,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2714</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>565</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
       <c r="I7" s="7">
-        <v>2734</v>
+        <v>586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +4416,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25484</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="7">
         <v>52</v>
       </c>
-      <c r="D8" s="7">
-        <v>32049</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7">
-        <v>39</v>
-      </c>
       <c r="I8" s="7">
-        <v>25216</v>
+        <v>33142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
       </c>
       <c r="N8" s="7">
-        <v>57265</v>
+        <v>58625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,25 +4467,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
       <c r="I9" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -4524,7 +4500,7 @@
         <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4544,49 +4520,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1422</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>3160</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
       <c r="I10" s="7">
-        <v>1457</v>
+        <v>3239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4617</v>
+        <v>4662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,49 +4571,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7">
+        <v>29874</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
-        <v>31900</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" s="7">
-        <v>39</v>
-      </c>
       <c r="I11" s="7">
-        <v>29012</v>
+        <v>33632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>60912</v>
+        <v>63505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,25 +4622,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
       <c r="I12" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4679,7 +4655,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4693,55 +4669,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1163</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>2898</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
       <c r="I13" s="7">
-        <v>1175</v>
+        <v>2950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>4073</v>
+        <v>4113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +4726,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23363</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7">
         <v>48</v>
       </c>
-      <c r="D14" s="7">
-        <v>38183</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="7">
-        <v>35</v>
-      </c>
       <c r="I14" s="7">
-        <v>23998</v>
+        <v>39596</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>62180</v>
+        <v>62958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,25 +4777,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>53</v>
       </c>
-      <c r="D15" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4834,7 +4810,7 @@
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4854,49 +4830,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5715</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>7188</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
       <c r="I16" s="7">
-        <v>5785</v>
+        <v>7361</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>12973</v>
+        <v>13077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4881,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>144</v>
+      </c>
+      <c r="D17" s="7">
+        <v>94599</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="7">
         <v>177</v>
       </c>
-      <c r="D17" s="7">
-        <v>119237</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="7">
-        <v>144</v>
-      </c>
       <c r="I17" s="7">
-        <v>94138</v>
+        <v>124231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
       </c>
       <c r="N17" s="7">
-        <v>213375</v>
+        <v>218829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,25 +4932,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>188</v>
       </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
       <c r="I18" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -4989,7 +4965,7 @@
         <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -5003,7 +4979,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
